--- a/dist/files/xls/5000301-02-000-list-titulnyy-kd.xlsx
+++ b/dist/files/xls/5000301-02-000-list-titulnyy-kd.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\web\500.СТП\03 ШАБЛОНЫ ДОКУМЕНТОВ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="лист титульный КД" sheetId="15" r:id="rId1"/>
@@ -12,10 +17,11 @@
     <sheet name="реестр разделов дп" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$T$40</definedName>
+    <definedName name="Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$T$39</definedName>
     <definedName name="Print_Area" localSheetId="2">'реестр разделов дп'!$A$1:$T$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный КД'!$A$1:$T$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
   <si>
     <t>№заказа</t>
   </si>
@@ -124,9 +130,6 @@
   </si>
   <si>
     <t>порядковый номер образца цвета</t>
-  </si>
-  <si>
-    <t>РЕЕСТР РАЗДЕЛОВ КОМПЛЕКТА «ДИЗАЙН-ПРОЕКТ»</t>
   </si>
   <si>
     <t>1 ПАСПОРТ ИЗДЕЛИЙ ЗАКАЗА</t>
@@ -278,18 +281,9 @@
 №5</t>
   </si>
   <si>
-    <t>ТКМУ</t>
-  </si>
-  <si>
-    <t>ВАП</t>
-  </si>
-  <si>
     <t>ОБМЕРЩИК</t>
   </si>
   <si>
-    <t>РПП</t>
-  </si>
-  <si>
     <t>ТЕХНОЛОГ</t>
   </si>
   <si>
@@ -300,13 +294,85 @@
   </si>
   <si>
     <t>5000301-02-001</t>
+  </si>
+  <si>
+    <t>СДАЛ</t>
+  </si>
+  <si>
+    <t>ПЕРЕД ОТГРУЗКОЙ В ОТДЕЛКУ ИЗДЕЛИЯ ПРОШЛИ ПРОВЕРКУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОВЕРИЛ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАСТЕР ЦЕХА 2 ЭТАЖА </t>
+  </si>
+  <si>
+    <t>ПАРДАЕВ Т.</t>
+  </si>
+  <si>
+    <t>ОТК</t>
+  </si>
+  <si>
+    <t>ЗОЛОЕДОВ С.</t>
+  </si>
+  <si>
+    <t>НАЧАЛЬНИК ПР-ВА</t>
+  </si>
+  <si>
+    <t>ТИТОВ А.</t>
+  </si>
+  <si>
+    <t>БЕРДЫЕВ У.</t>
+  </si>
+  <si>
+    <t>ПЕРЕД ОТГРУЗКОЙ НА ГП ИЗДЕЛИЯ ПРОШЛИ ПРОВЕРКУ</t>
+  </si>
+  <si>
+    <t>ПРИНЯЛ</t>
+  </si>
+  <si>
+    <t>(ФИО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАСТЕР ЦЕХА 4 ЭТАЖА </t>
+  </si>
+  <si>
+    <t>(подпись)</t>
+  </si>
+  <si>
+    <t>________ / __________</t>
+  </si>
+  <si>
+    <t>________</t>
+  </si>
+  <si>
+    <t>_____________</t>
+  </si>
+  <si>
+    <t>_____________ / __________</t>
+  </si>
+  <si>
+    <t>РПГ</t>
+  </si>
+  <si>
+    <t>Руководитель проектной группы</t>
+  </si>
+  <si>
+    <t>Руководитель ОТК</t>
+  </si>
+  <si>
+    <t>____________________</t>
+  </si>
+  <si>
+    <t>РЕЕСТР РАЗДЕЛОВ КОМПЛЕКТА «КОНСТРУКТОРСКОЙ ДОКУМЕНТАЦИИ»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +513,40 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -754,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -819,41 +919,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -865,6 +1024,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -876,12 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1170,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,19 +1337,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="10"/>
+    <col min="2" max="5" width="8.75" style="10"/>
+    <col min="6" max="6" width="8.25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="10"/>
+    <col min="9" max="9" width="8.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="10"/>
+    <col min="14" max="14" width="9.5" style="10" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="2" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1212,159 +1387,231 @@
       <c r="S1" s="8"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="59"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="13"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="74"/>
+      <c r="S3" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="59"/>
     </row>
     <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="13"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="75"/>
+      <c r="S4" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="75"/>
+      <c r="L5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="75"/>
+      <c r="S5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="63"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="71"/>
+      <c r="L7" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="71"/>
+      <c r="S7" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="64"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
@@ -1378,15 +1625,15 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -1402,12 +1649,12 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1424,12 +1671,12 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
       <c r="T11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1446,12 +1693,12 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1468,12 +1715,12 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1490,12 +1737,12 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="13"/>
     </row>
     <row r="15" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,20 +1750,20 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="E15" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
@@ -1527,18 +1774,18 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
@@ -1549,18 +1796,18 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -1574,20 +1821,20 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="13"/>
@@ -1600,20 +1847,20 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="13"/>
@@ -1626,20 +1873,20 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78">
+        <v>1</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="13"/>
@@ -1652,20 +1899,20 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="13"/>
@@ -1875,12 +2122,12 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -1893,32 +2140,32 @@
       <c r="T31" s="13"/>
     </row>
     <row r="32" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60" t="s">
+      <c r="A32" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="61" t="s">
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="41" t="s">
+      <c r="P32" s="82"/>
+      <c r="Q32" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R32" s="41" t="s">
+      <c r="R32" s="51" t="s">
         <v>28</v>
       </c>
       <c r="S32" s="15" t="s">
@@ -1927,32 +2174,32 @@
       <c r="T32" s="13"/>
     </row>
     <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="60" t="s">
+      <c r="A33" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="61" t="s">
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="41" t="s">
+      <c r="P33" s="82"/>
+      <c r="Q33" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="41" t="s">
+      <c r="R33" s="51" t="s">
         <v>28</v>
       </c>
       <c r="S33" s="15" t="s">
@@ -1977,8 +2224,8 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
     </row>
@@ -1989,50 +2236,50 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
     </row>
     <row r="36" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="61" t="s">
+      <c r="A36" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="41" t="s">
+      <c r="P36" s="82"/>
+      <c r="Q36" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R36" s="41" t="s">
+      <c r="R36" s="51" t="s">
         <v>28</v>
       </c>
       <c r="S36" s="15" t="s">
@@ -2041,32 +2288,32 @@
       <c r="T36" s="13"/>
     </row>
     <row r="37" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="61" t="s">
+      <c r="A37" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="41" t="s">
+      <c r="P37" s="82"/>
+      <c r="Q37" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R37" s="41" t="s">
+      <c r="R37" s="51" t="s">
         <v>28</v>
       </c>
       <c r="S37" s="15" t="s">
@@ -2075,32 +2322,32 @@
       <c r="T37" s="13"/>
     </row>
     <row r="38" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="61" t="s">
+      <c r="A38" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="41" t="s">
+      <c r="P38" s="82"/>
+      <c r="Q38" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R38" s="41" t="s">
+      <c r="R38" s="51" t="s">
         <v>28</v>
       </c>
       <c r="S38" s="15" t="s">
@@ -2108,78 +2355,36 @@
       </c>
       <c r="T38" s="13"/>
     </row>
-    <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="S39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="20"/>
+    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:P39"/>
+  <mergeCells count="38">
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:P38"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A36:J36"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="H21:I21"/>
@@ -2188,6 +2393,11 @@
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="K32:N32"/>
     <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="E15:P17"/>
@@ -2195,6 +2405,18 @@
     <mergeCell ref="J18:Q18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -2229,21 +2451,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="A1" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
@@ -2253,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>2</v>
@@ -2274,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>25</v>
@@ -2282,359 +2504,359 @@
       <c r="L2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="43" t="s">
-        <v>83</v>
+      <c r="A3" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="35">
         <v>1</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="35">
         <v>2</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="35">
         <v>14</v>
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="43" t="s">
-        <v>83</v>
+      <c r="A4" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B4" s="35">
         <v>2</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="35">
         <v>2</v>
       </c>
       <c r="F4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="35">
         <v>10</v>
       </c>
       <c r="I4" s="38"/>
       <c r="J4" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="43" t="s">
-        <v>83</v>
+      <c r="A5" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="35">
         <v>3</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="35">
         <v>2</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="35">
         <v>3</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="43" t="s">
-        <v>83</v>
+      <c r="A6" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="35">
         <v>4</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="35">
         <v>2</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="35">
         <v>1</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="43" t="s">
-        <v>83</v>
+      <c r="A7" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="35">
         <v>5</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="35">
         <v>2</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="35">
         <v>1</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="45" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="43" t="s">
-        <v>83</v>
+      <c r="A8" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="35">
         <v>6</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="35">
         <v>2</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="35">
         <v>1</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="43" t="s">
-        <v>83</v>
+      <c r="A9" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="35">
         <v>7</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="35">
         <v>2</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="35">
         <v>1</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="45" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="43" t="s">
-        <v>83</v>
+      <c r="A10" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="35">
         <v>8</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="35">
         <v>2</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="35">
         <v>1</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="43" t="s">
-        <v>83</v>
+      <c r="A11" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="35">
         <v>9</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="35">
         <v>2</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="35">
         <v>1</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="43" t="s">
-        <v>83</v>
+      <c r="A12" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="35">
         <v>10</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="35">
         <v>2</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>8</v>
@@ -2644,34 +2866,34 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="43" t="s">
-        <v>83</v>
+      <c r="A13" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="35">
         <v>11</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="35">
         <v>2</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>8</v>
@@ -2681,53 +2903,53 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="91.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="47">
+      <c r="A14" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="45">
         <v>12</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="47">
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="45">
         <v>2</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="47">
+      <c r="H14" s="45">
         <v>9</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="50" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>43</v>
+      <c r="L14" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2744,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2778,70 +3000,70 @@
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
+      <c r="B2" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
       <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
       <c r="T3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
       <c r="T4" s="25"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -2869,7 +3091,7 @@
     <row r="6" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3133,7 +3355,7 @@
     <row r="17" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3157,7 +3379,7 @@
     <row r="18" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3181,7 +3403,7 @@
     <row r="19" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3205,7 +3427,7 @@
     <row r="20" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3229,7 +3451,7 @@
     <row r="21" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3253,7 +3475,7 @@
     <row r="22" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3277,7 +3499,7 @@
     <row r="23" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3301,7 +3523,7 @@
     <row r="24" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3325,7 +3547,7 @@
     <row r="25" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3349,7 +3571,7 @@
     <row r="26" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3373,7 +3595,7 @@
     <row r="27" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3397,7 +3619,7 @@
     <row r="28" spans="1:20" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
